--- a/Classes.xlsx
+++ b/Classes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Parth\smort\report-gen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nirav\SWDC-Report-Generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128063AC-9BBE-4841-ACF9-9CEFA19D982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35F992C-9774-4889-8243-ED667E94EB70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="1663" windowWidth="18851" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
@@ -26,15 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
     <t>Class</t>
   </si>
   <si>
     <t>Capacity</t>
-  </si>
-  <si>
-    <t>A101</t>
   </si>
 </sst>
 </file>
@@ -354,11 +351,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -369,8 +366,8 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>101</v>
       </c>
       <c r="B2">
         <v>30</v>
@@ -465,11 +462,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56F4738F-88C7-4449-B823-C11258A37CD6}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -481,42 +478,42 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>11</v>
+        <v>102</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>14</v>
+        <v>103</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>19</v>
+        <v>104</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
